--- a/Projet 5 - test d'acceptation.xlsx
+++ b/Projet 5 - test d'acceptation.xlsx
@@ -406,7 +406,7 @@
     <t>275-276</t>
   </si>
   <si>
-    <t>selection du bouton et evenement sur btnOrder</t>
+    <t>selection du bouton qui déclenche événement sur let btnOrder</t>
   </si>
   <si>
     <t>événement qui se déclenche en cliquant sur le boutton commander et qui appelle la fonction callback submitOrder</t>
